--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\CIS 436\contactManagementApp-project4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsult\Documents\Winter_2021_Code\MobileApps\Project4\contactManagementApp-project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630CCFCC-BC29-4D8E-A72A-3199BA44328B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEEC7D8-F1F6-4E7D-B426-03757E980AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 23, 2021" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="36">
   <si>
     <t>Test case plan</t>
   </si>
@@ -140,6 +140,16 @@
   </si>
   <si>
     <t>change background using overflow menu, select green</t>
+  </si>
+  <si>
+    <t>User rotates device</t>
+  </si>
+  <si>
+    <t>Application remains in portrait mode</t>
+  </si>
+  <si>
+    <t>application orientation
+changes to landscape</t>
   </si>
 </sst>
 </file>
@@ -622,13 +632,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.26953125" customWidth="1"/>
     <col min="4" max="4" width="35.453125" bestFit="1" customWidth="1"/>
@@ -927,10 +937,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G14"/>
@@ -973,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1279,7 +1313,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1328,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D882B864-A4E9-48D3-981D-4FAC4F2825A5}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,7 +1693,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsult\Documents\Winter_2021_Code\MobileApps\Project4\contactManagementApp-project4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\CIS 436\contactManagementApp-project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEEC7D8-F1F6-4E7D-B426-03757E980AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84133ED1-C168-4838-87EF-8EFC9624DB79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 23, 2021" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="48">
   <si>
     <t>Test case plan</t>
   </si>
@@ -150,6 +150,42 @@
   <si>
     <t>application orientation
 changes to landscape</t>
+  </si>
+  <si>
+    <t>contacts cannot be created</t>
+  </si>
+  <si>
+    <t>error with database connection</t>
+  </si>
+  <si>
+    <t>doesn't change background when clicked</t>
+  </si>
+  <si>
+    <t>missing fields when adding contact</t>
+  </si>
+  <si>
+    <t>missing fields when updating contact</t>
+  </si>
+  <si>
+    <t>Display warning message "Please fill all the fields" if any field empty</t>
+  </si>
+  <si>
+    <t>display "Updated successfully" after update</t>
+  </si>
+  <si>
+    <t>Display "Updated successfully" on main contact screen after contact update</t>
+  </si>
+  <si>
+    <t>display "Contact added" after add</t>
+  </si>
+  <si>
+    <t>Display "Contact added" on main contact screen after contact added</t>
+  </si>
+  <si>
+    <t>error with update query</t>
+  </si>
+  <si>
+    <t>update is not successful</t>
   </si>
 </sst>
 </file>
@@ -632,8 +668,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,6 +830,9 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
@@ -820,6 +859,9 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -846,6 +888,9 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
@@ -872,6 +917,9 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
@@ -898,6 +946,9 @@
       <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
@@ -923,6 +974,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
@@ -966,33 +1020,137 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -1007,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,6 +1379,9 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1339,17 +1500,120 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:10" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1360,7 +1624,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1371,9 +1635,9 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -1387,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D882B864-A4E9-48D3-981D-4FAC4F2825A5}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1719,22 +1983,122 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
